--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H2">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.818814205380573</v>
+        <v>0.2721246666666666</v>
       </c>
       <c r="N2">
-        <v>0.818814205380573</v>
+        <v>0.8163739999999999</v>
       </c>
       <c r="O2">
-        <v>0.4261854949111691</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="P2">
-        <v>0.4261854949111691</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="Q2">
-        <v>9.634852725913953</v>
+        <v>10.041303051494</v>
       </c>
       <c r="R2">
-        <v>9.634852725913953</v>
+        <v>90.37172746344599</v>
       </c>
       <c r="S2">
-        <v>0.2122185121893506</v>
+        <v>0.08359243900046173</v>
       </c>
       <c r="T2">
-        <v>0.2122185121893506</v>
+        <v>0.08359243900046173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H3">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10244828514891</v>
+        <v>0.8319233333333332</v>
       </c>
       <c r="N3">
-        <v>1.10244828514891</v>
+        <v>2.49577</v>
       </c>
       <c r="O3">
-        <v>0.5738145050888309</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="P3">
-        <v>0.5738145050888309</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="Q3">
-        <v>12.97232851548932</v>
+        <v>30.69767400336999</v>
       </c>
       <c r="R3">
-        <v>12.97232851548932</v>
+        <v>276.2790660303299</v>
       </c>
       <c r="S3">
-        <v>0.2857301855568827</v>
+        <v>0.2555538288629751</v>
       </c>
       <c r="T3">
-        <v>0.2857301855568827</v>
+        <v>0.2555538288629751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.26149754195757</v>
+        <v>36.899643</v>
       </c>
       <c r="H4">
-        <v>3.26149754195757</v>
+        <v>110.698929</v>
       </c>
       <c r="I4">
-        <v>0.1380199749912063</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J4">
-        <v>0.1380199749912063</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.818814205380573</v>
+        <v>1.252499666666667</v>
       </c>
       <c r="N4">
-        <v>0.818814205380573</v>
+        <v>3.757499</v>
       </c>
       <c r="O4">
-        <v>0.4261854949111691</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="P4">
-        <v>0.4261854949111691</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="Q4">
-        <v>2.67056051816868</v>
+        <v>46.216790557619</v>
       </c>
       <c r="R4">
-        <v>2.67056051816868</v>
+        <v>415.951115018571</v>
       </c>
       <c r="S4">
-        <v>0.05882211134925446</v>
+        <v>0.3847482966774983</v>
       </c>
       <c r="T4">
-        <v>0.05882211134925446</v>
+        <v>0.3847482966774983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H5">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.10244828514891</v>
+        <v>0.2721246666666666</v>
       </c>
       <c r="N5">
-        <v>1.10244828514891</v>
+        <v>0.8163739999999999</v>
       </c>
       <c r="O5">
-        <v>0.5738145050888309</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="P5">
-        <v>0.5738145050888309</v>
+        <v>0.1154759865526449</v>
       </c>
       <c r="Q5">
-        <v>3.595632372148508</v>
+        <v>0.9183714954353333</v>
       </c>
       <c r="R5">
-        <v>3.595632372148508</v>
+        <v>8.265343458917998</v>
       </c>
       <c r="S5">
-        <v>0.07919786364195187</v>
+        <v>0.007645313842063439</v>
       </c>
       <c r="T5">
-        <v>0.07919786364195187</v>
+        <v>0.007645313842063439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.60228585853633</v>
+        <v>3.374819</v>
       </c>
       <c r="H6">
-        <v>8.60228585853633</v>
+        <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J6">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.818814205380573</v>
+        <v>0.8319233333333332</v>
       </c>
       <c r="N6">
-        <v>0.818814205380573</v>
+        <v>2.49577</v>
       </c>
       <c r="O6">
-        <v>0.4261854949111691</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="P6">
-        <v>0.4261854949111691</v>
+        <v>0.3530263126440755</v>
       </c>
       <c r="Q6">
-        <v>7.043673859713966</v>
+        <v>2.807590671876667</v>
       </c>
       <c r="R6">
-        <v>7.043673859713966</v>
+        <v>25.26831604689</v>
       </c>
       <c r="S6">
-        <v>0.1551448713725641</v>
+        <v>0.02337279840809074</v>
       </c>
       <c r="T6">
-        <v>0.1551448713725641</v>
+        <v>0.02337279840809074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.60228585853633</v>
+        <v>3.374819</v>
       </c>
       <c r="H7">
-        <v>8.60228585853633</v>
+        <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J7">
-        <v>0.3640313272625603</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10244828514891</v>
+        <v>1.252499666666667</v>
       </c>
       <c r="N7">
-        <v>1.10244828514891</v>
+        <v>3.757499</v>
       </c>
       <c r="O7">
-        <v>0.5738145050888309</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="P7">
-        <v>0.5738145050888309</v>
+        <v>0.5314977008032796</v>
       </c>
       <c r="Q7">
-        <v>9.483575293104096</v>
+        <v>4.226959672560334</v>
       </c>
       <c r="R7">
-        <v>9.483575293104096</v>
+        <v>38.042637053043</v>
       </c>
       <c r="S7">
-        <v>0.2088864558899963</v>
+        <v>0.03518884618598771</v>
       </c>
       <c r="T7">
-        <v>0.2088864558899963</v>
+        <v>0.03518884618598771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.699319</v>
+      </c>
+      <c r="H8">
+        <v>32.097957</v>
+      </c>
+      <c r="I8">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J8">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2721246666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.8163739999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.1154759865526449</v>
+      </c>
+      <c r="P8">
+        <v>0.1154759865526449</v>
+      </c>
+      <c r="Q8">
+        <v>2.911548616435333</v>
+      </c>
+      <c r="R8">
+        <v>26.203937547918</v>
+      </c>
+      <c r="S8">
+        <v>0.02423823371011967</v>
+      </c>
+      <c r="T8">
+        <v>0.02423823371011967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.699319</v>
+      </c>
+      <c r="H9">
+        <v>32.097957</v>
+      </c>
+      <c r="I9">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J9">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8319233333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.49577</v>
+      </c>
+      <c r="O9">
+        <v>0.3530263126440755</v>
+      </c>
+      <c r="P9">
+        <v>0.3530263126440755</v>
+      </c>
+      <c r="Q9">
+        <v>8.901013126876666</v>
+      </c>
+      <c r="R9">
+        <v>80.10911814188999</v>
+      </c>
+      <c r="S9">
+        <v>0.07409968537300965</v>
+      </c>
+      <c r="T9">
+        <v>0.07409968537300965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.699319</v>
+      </c>
+      <c r="H10">
+        <v>32.097957</v>
+      </c>
+      <c r="I10">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="J10">
+        <v>0.2098984770229228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.252499666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.757499</v>
+      </c>
+      <c r="O10">
+        <v>0.5314977008032796</v>
+      </c>
+      <c r="P10">
+        <v>0.5314977008032796</v>
+      </c>
+      <c r="Q10">
+        <v>13.40089348106034</v>
+      </c>
+      <c r="R10">
+        <v>120.608041329543</v>
+      </c>
+      <c r="S10">
+        <v>0.1115605579397935</v>
+      </c>
+      <c r="T10">
+        <v>0.1115605579397935</v>
       </c>
     </row>
   </sheetData>
